--- a/results.xlsx
+++ b/results.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
   <si>
     <t>Kernal</t>
   </si>
@@ -44,54 +44,6 @@
     <t>Sigmoid</t>
   </si>
   <si>
-    <t>Train Time (Ensemble)</t>
-  </si>
-  <si>
-    <t>Train Time (Single Classifier)</t>
-  </si>
-  <si>
-    <t>1020s</t>
-  </si>
-  <si>
-    <t>40.3s</t>
-  </si>
-  <si>
-    <t>0.6s</t>
-  </si>
-  <si>
-    <t>17.3s</t>
-  </si>
-  <si>
-    <t>3.17s</t>
-  </si>
-  <si>
-    <t>5.42s</t>
-  </si>
-  <si>
-    <t>3.42s</t>
-  </si>
-  <si>
-    <t>6.62s</t>
-  </si>
-  <si>
-    <t>0.024s</t>
-  </si>
-  <si>
-    <t>0.02s</t>
-  </si>
-  <si>
-    <t>0.022s</t>
-  </si>
-  <si>
-    <t>0.079s</t>
-  </si>
-  <si>
-    <t>Runtime Performance of Kernals</t>
-  </si>
-  <si>
-    <t>Train Time (Cross Validation)</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -105,6 +57,96 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Best Variables (Ensemble)</t>
+  </si>
+  <si>
+    <t># Estimators</t>
+  </si>
+  <si>
+    <t>Learning Rate</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Poly (Boosted)</t>
+  </si>
+  <si>
+    <t>RBF (Boosted)</t>
+  </si>
+  <si>
+    <t>Linear (Boosted)</t>
+  </si>
+  <si>
+    <t>Sigmoid (Boosted)</t>
+  </si>
+  <si>
+    <t>Train Accuracy</t>
+  </si>
+  <si>
+    <t>Test Accuracy</t>
+  </si>
+  <si>
+    <t>Modle Perforamance</t>
+  </si>
+  <si>
+    <t>Runtime Performance of Models</t>
+  </si>
+  <si>
+    <t>Train Time (s)</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Test Time (s)</t>
+  </si>
+  <si>
+    <t>Train Time (Ensemble)(s)</t>
+  </si>
+  <si>
+    <t>Test Time (Ensemble)(s)</t>
+  </si>
+  <si>
+    <t>Max Depth</t>
+  </si>
+  <si>
+    <t>Min Samples Leaf</t>
+  </si>
+  <si>
+    <t>Best Variables (Random Forest)</t>
+  </si>
+  <si>
+    <t>Model Specific Parameters</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Random Forrest</t>
+  </si>
+  <si>
+    <t>Error Function</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>Decision Function</t>
+  </si>
+  <si>
+    <t>One versus One</t>
+  </si>
+  <si>
+    <t>Gini Impurity</t>
+  </si>
+  <si>
+    <t>C-Penalty</t>
+  </si>
+  <si>
+    <t>Minimize Loss</t>
   </si>
 </sst>
 </file>
@@ -148,9 +190,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,149 +472,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>756</v>
+      </c>
+      <c r="C3">
+        <v>4254</v>
+      </c>
+      <c r="D3">
+        <v>3.16E-3</v>
+      </c>
+      <c r="E3">
+        <v>0.49837300000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>144</v>
+      </c>
+      <c r="C4">
+        <v>3732</v>
+      </c>
+      <c r="D4">
+        <v>5.0419999999999996E-3</v>
+      </c>
+      <c r="E4">
+        <v>9.3732999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>96</v>
+      </c>
+      <c r="C5">
+        <v>3492</v>
+      </c>
+      <c r="D5">
+        <v>2.4459999999999998E-3</v>
+      </c>
+      <c r="E5">
+        <v>0.359732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>57.5</v>
+      </c>
+      <c r="C6">
+        <v>4176</v>
+      </c>
+      <c r="D6">
+        <v>6.9369999999999996E-3</v>
+      </c>
+      <c r="E6">
+        <v>0.12598799999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>318</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>2.967E-3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>1</v>
       </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
       <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
+      <c r="B11">
+        <v>1.4</v>
+      </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
+      <c r="B12">
+        <v>64</v>
+      </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>4</v>
       </c>
+      <c r="B13">
+        <v>0.8</v>
+      </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>68</v>
+      </c>
+      <c r="C17">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>68</v>
+      </c>
+      <c r="C19">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0.92410000000000003</v>
+      </c>
+      <c r="C29">
+        <v>0.89788053949903601</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="C30">
+        <v>0.75529865125240803</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>0.98</v>
+      </c>
+      <c r="C31">
+        <v>0.97687861271676302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="C32">
+        <v>0.83622350674373702</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="C33">
+        <v>0.78998073217726394</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="C34">
+        <v>0.69556840077071203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="C35">
+        <v>0.69556840077071203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36">
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="C36">
+        <v>0.87668593448940202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="C37">
+        <v>0.91520000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>